--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/Documents/library/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C08C99-6A95-FB41-870C-B84FC936AC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EB7100-8A3C-C14F-84AB-25BA307EE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="660" windowWidth="15340" windowHeight="13800" activeTab="1" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
+    <workbookView xWindow="-760" yWindow="560" windowWidth="16240" windowHeight="15180" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Français" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="626">
   <si>
     <t>Vietnamese</t>
   </si>
@@ -49,6 +51,1869 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>army</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>attack (noun)</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>author (noun)</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>back (body)</t>
+  </si>
+  <si>
+    <t>back (direction)</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bag (noun)</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>band (music)</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>bar (location)</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>beard</t>
+  </si>
+  <si>
+    <t>beat (verb)</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>bend (verb)</t>
+  </si>
+  <si>
+    <t>beverage</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>big/large</t>
+  </si>
+  <si>
+    <t>bill (noun)</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>blind (adjective)</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>box (noun)</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>break (verb)</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>bridge (noun)</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>build (verb)</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>burn (verb)</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>buy (verb)</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>call (verb)</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>camp (noun)</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>carry (verb)</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>catch (verb)</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>centimeter</t>
+  </si>
+  <si>
+    <t>chair (noun)</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>circle (noun)</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>clean (adjective)</t>
+  </si>
+  <si>
+    <t>clean (verb)</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>close (verb)</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>coat (noun)</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>color (noun)</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>consonant</t>
+  </si>
+  <si>
+    <t>contract (noun)</t>
+  </si>
+  <si>
+    <t>cook (verb)</t>
+  </si>
+  <si>
+    <t>cool (adjective)</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>corner (noun)</t>
+  </si>
+  <si>
+    <t>count (verb)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>crowd (noun)</t>
+  </si>
+  <si>
+    <t>cry (verb)</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>curved</t>
+  </si>
+  <si>
+    <t>cut (verb)</t>
+  </si>
+  <si>
+    <t>dance (verb)</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>deaf</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>die (verb)</t>
+  </si>
+  <si>
+    <t>dig (verb)</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>dollar</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>draw (verb)</t>
+  </si>
+  <si>
+    <t>dream (noun)</t>
+  </si>
+  <si>
+    <t>dress (noun)</t>
+  </si>
+  <si>
+    <t>drink (verb)</t>
+  </si>
+  <si>
+    <t>drive (verb)</t>
+  </si>
+  <si>
+    <t>drug (noun)</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>dust (noun)</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>eat (verb)</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>eighty</t>
+  </si>
+  <si>
+    <t>election</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>eleven</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>exercise (noun)</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>explode (verb)</t>
+  </si>
+  <si>
+    <t>eye (noun)</t>
+  </si>
+  <si>
+    <t>face (noun)</t>
+  </si>
+  <si>
+    <t>fall (season)</t>
+  </si>
+  <si>
+    <t>fall (verb)</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>fan (electric)</t>
+  </si>
+  <si>
+    <t>fan (sport)</t>
+  </si>
+  <si>
+    <t>farm (noun)</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>feed (verb)</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>fifteen</t>
+  </si>
+  <si>
+    <t>fifth (5th)</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>fight (verb)</t>
+  </si>
+  <si>
+    <t>find (verb)</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>fire (noun)</t>
+  </si>
+  <si>
+    <t>first (1st)</t>
+  </si>
+  <si>
+    <t>fish (noun)</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>flat (adjective)</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>fly (verb)</t>
+  </si>
+  <si>
+    <t>follow (verb)</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>foot (measurement)</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>fourteen</t>
+  </si>
+  <si>
+    <t>fourth (4th)</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>gasoline</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>go (verb)</t>
+  </si>
+  <si>
+    <t>God</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>grow (verb)</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hang (verb)</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>heat (noun)</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>instrument (musical)</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>jump (verb)</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>kill (verb)</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>kiss (verb)</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>laugh (verb)</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>learn (verb)</t>
+  </si>
+  <si>
+    <t>left (direction)</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>down (verb)</t>
+  </si>
+  <si>
+    <t>lift (verb)</t>
+  </si>
+  <si>
+    <t>light (/dark)</t>
+  </si>
+  <si>
+    <t>light (/heavy)</t>
+  </si>
+  <si>
+    <t>light (noun)</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>listen (music) (verb)</t>
+  </si>
+  <si>
+    <t>lock (noun)</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>lose (verb)</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>love (verb)</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>marry (verb)</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>mean (/nice)</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>melt (verb)</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>mix/stir (verb)</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>murder (noun)</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>neighbor</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>nineteen</t>
+  </si>
+  <si>
+    <t>ninety</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>old (/new)</t>
+  </si>
+  <si>
+    <t>old (/young)</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>open (verb)</t>
+  </si>
+  <si>
+    <t>orange (color)</t>
+  </si>
+  <si>
+    <t>orange (food)</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>park (location)</t>
+  </si>
+  <si>
+    <t>pass (verb)</t>
+  </si>
+  <si>
+    <t>patient (noun)</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>pay (verb)</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>photograph</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>plant (noun)</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>play (verb)</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>poison (noun)</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>pound (weight)</t>
+  </si>
+  <si>
+    <t>pray (verb)</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>program (computer)</t>
+  </si>
+  <si>
+    <t>pull (verb)</t>
+  </si>
+  <si>
+    <t>push (verb)</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>race (ethnicity)</t>
+  </si>
+  <si>
+    <t>race (sport)</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>rain (noun)</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>right (direction)</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>run (verb)</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>second (2nd)</t>
+  </si>
+  <si>
+    <t>second (time)</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>sell (verb)</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>seventeen</t>
+  </si>
+  <si>
+    <t>seventy</t>
+  </si>
+  <si>
+    <t>sex (gender)</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>shake (verb)</t>
+  </si>
+  <si>
+    <t>shallow</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>short (long)</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>sign (noun)</t>
+  </si>
+  <si>
+    <t>sign (verb)</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>sing (verb)</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>sit (verb)</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>sixteen</t>
+  </si>
+  <si>
+    <t>sixty</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>sleep (verb)</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>small/little</t>
+  </si>
+  <si>
+    <t>smell (verb)</t>
+  </si>
+  <si>
+    <t>smile (verb)</t>
+  </si>
+  <si>
+    <t>snow (noun)</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>soil/earth</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>outer</t>
+  </si>
+  <si>
+    <t>speak/say (verb)</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>spring (season)</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>stain</t>
+  </si>
+  <si>
+    <t>stand (verb)</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>stop (verb)</t>
+  </si>
+  <si>
+    <t>store/shop</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>street/road</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>suit (noun)</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>sweat (noun)</t>
+  </si>
+  <si>
+    <t>swim (verb)</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>taste (verb)</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>teach (verb)</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>tear (drop)</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>theater</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>think (verb)</t>
+  </si>
+  <si>
+    <t>third (3rd)</t>
+  </si>
+  <si>
+    <t>thirteen</t>
+  </si>
+  <si>
+    <t>thirty</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>throw (verb)</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>ticket (train)</t>
+  </si>
+  <si>
+    <t>tight</t>
+  </si>
+  <si>
+    <t>time (noun)</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>touch (verb)</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>train (noun)</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>turn (verb)</t>
+  </si>
+  <si>
+    <t>twelve</t>
+  </si>
+  <si>
+    <t>twenty</t>
+  </si>
+  <si>
+    <t>one (etc)</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>voice (noun)</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>wake</t>
+  </si>
+  <si>
+    <t>up (verb)</t>
+  </si>
+  <si>
+    <t>walk (verb)</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warm (adjective)</t>
+  </si>
+  <si>
+    <t>wash (verb)</t>
+  </si>
+  <si>
+    <t>watch (TV) (verb)</t>
+  </si>
+  <si>
+    <t>water (noun)</t>
+  </si>
+  <si>
+    <t>wave (ocean)</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>wear (verb)</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>wet (adj)</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>win (verb)</t>
+  </si>
+  <si>
+    <t>wind (noun)</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>work (verb)</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>write (verb)</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>you (singular/plural)</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>diễn viên</t>
   </si>
 </sst>
 </file>
@@ -91,9 +1956,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,55 +2276,5145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F638"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="C127" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>461</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>462</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>465</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>466</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>469</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>470</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>471</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>472</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>473</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>474</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>475</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>476</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>477</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>478</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>479</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>480</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>481</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>482</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>483</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>484</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>485</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>486</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>487</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>488</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>489</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>490</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>491</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>492</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>493</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>494</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>495</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>496</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>497</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>498</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>499</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>506</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{79009A72-7DCF-7E48-B420-20A4F7B69C3C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4B3226-8B2E-634C-9A07-3EB4437CE325}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/Documents/library/french/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E8587-01CB-7147-A752-440DA9AE16BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A191DC-7067-A544-8319-6B2D0A7A35F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="460" windowWidth="16060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
+    <workbookView xWindow="-8260" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="755">
   <si>
     <t>English</t>
   </si>
@@ -2232,13 +2232,99 @@
   </si>
   <si>
     <t>vɔtʁ ma.ʁi</t>
+  </si>
+  <si>
+    <t>rain (verb)</t>
+  </si>
+  <si>
+    <t>dehors</t>
+  </si>
+  <si>
+    <t>də.ɔʁ</t>
+  </si>
+  <si>
+    <t>pleut</t>
+  </si>
+  <si>
+    <t>plø</t>
+  </si>
+  <si>
+    <t>a.ʁjɛʁ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>l'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arrière</t>
+    </r>
+  </si>
+  <si>
+    <t>mauvais</t>
+  </si>
+  <si>
+    <t>mo.vɛ</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>sak</t>
+  </si>
+  <si>
+    <t>balle</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>banane</t>
+  </si>
+  <si>
+    <t>ba.nan</t>
+  </si>
+  <si>
+    <t>la bande / le groupe</t>
+  </si>
+  <si>
+    <t>bɑ̃d / ɡʁup</t>
+  </si>
+  <si>
+    <t>banque</t>
+  </si>
+  <si>
+    <t>bɑ̃k</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>baʁ</t>
+  </si>
+  <si>
+    <t>salle de bains / toilettes</t>
+  </si>
+  <si>
+    <t>sal də bɛ̃ / twa.lɛt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2252,6 +2338,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2601,24 +2692,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E665"/>
+  <dimension ref="A1:E666"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B659" sqref="B659"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>623</v>
       </c>
@@ -2635,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2649,7 +2740,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2666,7 +2757,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2680,7 +2771,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2694,7 +2785,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2708,7 +2799,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2722,7 +2813,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2736,7 +2827,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2750,7 +2841,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2767,7 +2858,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2784,7 +2875,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2798,7 +2889,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2815,7 +2906,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2829,7 +2920,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2843,7 +2934,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2860,7 +2951,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2877,7 +2968,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2891,7 +2982,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2908,7 +2999,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2925,7 +3016,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2942,79 +3033,136 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3022,7 +3170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3030,7 +3178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3038,7 +3186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3046,7 +3194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3054,7 +3202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3062,7 +3210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3070,7 +3218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3078,7 +3226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3086,7 +3234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3094,7 +3242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3102,7 +3250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3110,7 +3258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3118,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3126,7 +3274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3134,7 +3282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3142,7 +3290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3150,7 +3298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3158,7 +3306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3166,7 +3314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3174,7 +3322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3182,7 +3330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3190,7 +3338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3198,7 +3346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3206,7 +3354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3214,7 +3362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3222,7 +3370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3230,7 +3378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3238,7 +3386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3246,7 +3394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3254,7 +3402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3262,7 +3410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3270,7 +3418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3278,7 +3426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3286,7 +3434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3294,7 +3442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3302,7 +3450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3310,7 +3458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3318,7 +3466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3326,7 +3474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3334,7 +3482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3342,7 +3490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3350,7 +3498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3358,7 +3506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3366,7 +3514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3374,7 +3522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3382,7 +3530,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3390,7 +3538,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3398,7 +3546,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3406,7 +3554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3414,7 +3562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3422,7 +3570,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3430,7 +3578,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3438,7 +3586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3446,7 +3594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3454,7 +3602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3462,7 +3610,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3470,7 +3618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3478,7 +3626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3486,7 +3634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3494,7 +3642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3502,7 +3650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3510,7 +3658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3518,7 +3666,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3526,7 +3674,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3534,7 +3682,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3542,7 +3690,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3550,7 +3698,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3558,7 +3706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3566,7 +3714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3574,7 +3722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3582,7 +3730,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3590,7 +3738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3598,7 +3746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3606,7 +3754,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3614,7 +3762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3622,7 +3770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3630,7 +3778,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3638,7 +3786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3646,7 +3794,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3654,7 +3802,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3662,7 +3810,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3670,7 +3818,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -3678,7 +3826,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -3686,7 +3834,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -3694,7 +3842,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -3702,7 +3850,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -3710,7 +3858,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3718,7 +3866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3726,7 +3874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3734,7 +3882,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -3742,7 +3890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -3750,7 +3898,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -3758,7 +3906,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -3766,7 +3914,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -3774,7 +3922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -3782,7 +3930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -3790,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -3798,7 +3946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -3806,7 +3954,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -3814,7 +3962,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -3822,7 +3970,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -3830,7 +3978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -3838,7 +3986,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -3846,7 +3994,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -3854,7 +4002,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -3862,7 +4010,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -3870,7 +4018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -3878,7 +4026,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -3886,7 +4034,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -3894,7 +4042,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -3902,7 +4050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -3910,7 +4058,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -3918,7 +4066,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -3926,7 +4074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -3934,7 +4082,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -3942,7 +4090,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -3950,7 +4098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -3958,7 +4106,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -3966,7 +4114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -3974,7 +4122,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -3982,7 +4130,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -3990,7 +4138,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -3998,7 +4146,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -4006,7 +4154,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -4014,7 +4162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -4022,7 +4170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -4030,7 +4178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -4038,7 +4186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -4046,7 +4194,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -4054,7 +4202,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -4062,7 +4210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -4070,7 +4218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -4078,7 +4226,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -4086,7 +4234,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -4094,7 +4242,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -4102,7 +4250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -4110,7 +4258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -4118,7 +4266,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -4126,7 +4274,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -4134,7 +4282,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -4142,7 +4290,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -4150,7 +4298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -4158,7 +4306,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -4166,7 +4314,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -4174,7 +4322,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -4182,7 +4330,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -4190,7 +4338,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -4198,7 +4346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -4206,7 +4354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -4214,7 +4362,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -4222,7 +4370,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -4230,7 +4378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -4238,7 +4386,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -4246,7 +4394,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -4254,7 +4402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -4262,7 +4410,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -4270,7 +4418,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -4278,7 +4426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -4286,7 +4434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -4294,7 +4442,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -4302,7 +4450,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -4310,7 +4458,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -4318,7 +4466,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -4326,7 +4474,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -4334,7 +4482,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -4342,7 +4490,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -4350,7 +4498,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -4358,7 +4506,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -4366,7 +4514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -4374,7 +4522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -4382,7 +4530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -4390,7 +4538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -4398,7 +4546,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -4406,7 +4554,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -4414,7 +4562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -4422,7 +4570,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -4430,7 +4578,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -4438,7 +4586,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -4446,7 +4594,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -4454,7 +4602,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -4462,7 +4610,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -4470,7 +4618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -4478,7 +4626,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -4486,7 +4634,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -4494,7 +4642,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -4502,7 +4650,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -4510,7 +4658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -4518,7 +4666,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -4526,7 +4674,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -4534,7 +4682,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -4542,7 +4690,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -4550,7 +4698,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -4558,7 +4706,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -4566,7 +4714,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -4574,7 +4722,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -4582,7 +4730,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -4590,7 +4738,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -4598,7 +4746,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -4606,7 +4754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -4614,7 +4762,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -4622,7 +4770,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -4630,7 +4778,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -4638,7 +4786,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -4646,7 +4794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -4654,7 +4802,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -4662,7 +4810,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -4670,7 +4818,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -4678,7 +4826,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -4686,7 +4834,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -4694,7 +4842,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -4702,7 +4850,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -4710,7 +4858,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -4718,7 +4866,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -4726,7 +4874,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -4734,7 +4882,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -4742,7 +4890,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -4750,7 +4898,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -4758,7 +4906,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -4766,7 +4914,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -4774,7 +4922,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -4782,7 +4930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -4790,7 +4938,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -4798,7 +4946,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -4806,7 +4954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -4814,7 +4962,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -4822,7 +4970,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -4830,7 +4978,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -4838,7 +4986,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -4846,7 +4994,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -4854,7 +5002,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -4862,7 +5010,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -4870,7 +5018,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -4878,7 +5026,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -4886,7 +5034,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -4894,7 +5042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -4902,7 +5050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -4910,7 +5058,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -4918,7 +5066,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -4926,7 +5074,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -4934,7 +5082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -4942,7 +5090,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -4950,7 +5098,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -4958,7 +5106,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -4966,7 +5114,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -4974,7 +5122,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -4982,7 +5130,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -4990,7 +5138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -4998,7 +5146,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -5006,7 +5154,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -5014,7 +5162,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -5022,7 +5170,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -5030,7 +5178,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -5038,7 +5186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -5046,7 +5194,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -5054,7 +5202,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -5062,7 +5210,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -5070,7 +5218,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -5078,7 +5226,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -5086,7 +5234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -5094,7 +5242,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -5102,7 +5250,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -5110,7 +5258,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -5118,7 +5266,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -5126,7 +5274,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -5134,7 +5282,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -5142,7 +5290,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -5150,7 +5298,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -5158,7 +5306,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -5166,7 +5314,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -5174,7 +5322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -5182,7 +5330,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -5190,7 +5338,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -5198,7 +5346,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -5206,7 +5354,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -5214,7 +5362,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -5222,7 +5370,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -5230,7 +5378,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -5238,7 +5386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -5246,7 +5394,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -5254,7 +5402,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -5262,7 +5410,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -5270,7 +5418,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -5278,7 +5426,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -5286,7 +5434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -5294,7 +5442,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -5302,7 +5450,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -5310,7 +5458,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -5318,7 +5466,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -5326,7 +5474,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -5334,7 +5482,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -5342,7 +5490,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -5350,7 +5498,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -5358,7 +5506,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -5366,7 +5514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -5374,7 +5522,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -5382,7 +5530,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -5390,7 +5538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -5398,7 +5546,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -5406,7 +5554,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -5414,7 +5562,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -5422,7 +5570,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -5430,7 +5578,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -5438,7 +5586,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -5446,7 +5594,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -5460,7 +5608,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -5468,7 +5616,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -5476,7 +5624,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -5484,7 +5632,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -5492,7 +5640,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -5500,7 +5648,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -5508,7 +5656,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -5516,7 +5664,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -5524,7 +5672,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -5532,7 +5680,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -5540,7 +5688,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -5548,7 +5696,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -5556,7 +5704,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -5564,7 +5712,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -5572,7 +5720,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -5580,7 +5728,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -5588,7 +5736,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -5596,7 +5744,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -5604,7 +5752,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -5612,7 +5760,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -5620,7 +5768,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -5628,7 +5776,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -5636,7 +5784,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -5644,7 +5792,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -5652,7 +5800,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -5660,7 +5808,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -5668,7 +5816,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -5676,7 +5824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -5684,7 +5832,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -5692,7 +5840,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -5700,7 +5848,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -5708,7 +5856,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -5716,7 +5864,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -5724,7 +5872,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -5732,7 +5880,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -5740,7 +5888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -5748,7 +5896,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -5756,7 +5904,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -5764,7 +5912,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -5772,7 +5920,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -5780,7 +5928,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -5788,7 +5936,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -5796,7 +5944,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -5804,7 +5952,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -5812,7 +5960,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -5820,15 +5968,21 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4">
       <c r="A381" s="2">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -5836,7 +5990,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -5844,7 +5998,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -5852,7 +6006,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -5860,7 +6014,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -5868,7 +6022,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -5876,7 +6030,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -5884,7 +6038,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -5892,7 +6046,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -5900,7 +6054,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -5908,7 +6062,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -5916,7 +6070,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -5924,7 +6078,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -5932,7 +6086,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -5940,7 +6094,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -5948,7 +6102,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -5956,7 +6110,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -5964,7 +6118,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -5972,7 +6126,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -5980,7 +6134,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -5988,7 +6142,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -5996,7 +6150,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -6004,7 +6158,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -6012,7 +6166,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -6020,7 +6174,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -6028,7 +6182,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -6036,7 +6190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -6044,7 +6198,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -6052,7 +6206,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -6060,7 +6214,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -6068,7 +6222,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -6076,7 +6230,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -6084,7 +6238,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -6092,7 +6246,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -6100,7 +6254,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -6108,7 +6262,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -6116,7 +6270,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -6124,7 +6278,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -6132,7 +6286,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -6140,7 +6294,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -6148,7 +6302,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -6156,7 +6310,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -6164,7 +6318,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -6172,7 +6326,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -6180,7 +6334,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -6188,7 +6342,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -6196,7 +6350,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -6204,7 +6358,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -6212,7 +6366,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -6220,7 +6374,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -6228,7 +6382,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -6236,7 +6390,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -6244,7 +6398,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -6252,7 +6406,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -6260,7 +6414,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -6268,7 +6422,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -6276,7 +6430,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -6284,7 +6438,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -6292,7 +6446,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -6300,7 +6454,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -6308,7 +6462,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -6316,7 +6470,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -6324,7 +6478,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -6332,7 +6486,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -6340,7 +6494,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -6348,7 +6502,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -6356,7 +6510,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -6364,7 +6518,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -6372,7 +6526,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -6380,7 +6534,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -6388,7 +6542,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -6396,7 +6550,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -6404,7 +6558,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -6412,7 +6566,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -6420,7 +6574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -6428,7 +6582,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -6436,7 +6590,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -6444,7 +6598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -6452,7 +6606,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -6460,7 +6614,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -6468,7 +6622,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -6476,7 +6630,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -6484,7 +6638,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -6492,7 +6646,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -6500,7 +6654,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -6508,7 +6662,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -6516,7 +6670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -6524,7 +6678,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -6532,7 +6686,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -6540,7 +6694,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -6548,7 +6702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -6556,7 +6710,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -6564,7 +6718,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -6572,7 +6726,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -6580,7 +6734,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -6588,7 +6742,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -6596,7 +6750,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -6604,7 +6758,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -6612,7 +6766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -6620,7 +6774,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -6628,7 +6782,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -6636,7 +6790,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -6644,7 +6798,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -6652,7 +6806,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -6660,7 +6814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -6668,7 +6822,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -6676,7 +6830,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -6684,7 +6838,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -6692,7 +6846,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -6700,7 +6854,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -6708,7 +6862,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -6716,7 +6870,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -6724,7 +6878,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -6732,7 +6886,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -6740,7 +6894,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -6748,7 +6902,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -6756,7 +6910,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -6764,7 +6918,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -6772,7 +6926,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -6780,7 +6934,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -6788,7 +6942,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -6796,7 +6950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -6804,7 +6958,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -6812,7 +6966,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -6820,7 +6974,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -6828,7 +6982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -6836,7 +6990,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -6844,7 +6998,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -6852,7 +7006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -6860,7 +7014,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -6868,7 +7022,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -6876,7 +7030,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -6884,7 +7038,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -6892,7 +7046,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -6900,7 +7054,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -6908,7 +7062,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -6916,7 +7070,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -6924,7 +7078,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -6932,7 +7086,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -6940,7 +7094,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -6948,7 +7102,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -6956,7 +7110,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -6964,7 +7118,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -6972,7 +7126,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -6980,7 +7134,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -6988,7 +7142,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -7002,7 +7156,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -7010,7 +7164,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -7018,7 +7172,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -7026,7 +7180,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -7034,7 +7188,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -7042,7 +7196,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -7050,7 +7204,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -7058,7 +7212,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -7066,7 +7220,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -7074,7 +7228,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -7082,7 +7236,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -7090,7 +7244,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -7098,7 +7252,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -7106,7 +7260,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -7114,7 +7268,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -7122,7 +7276,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -7130,7 +7284,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -7138,7 +7292,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -7146,7 +7300,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -7154,7 +7308,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -7162,7 +7316,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -7170,7 +7324,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -7178,7 +7332,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -7186,7 +7340,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -7194,7 +7348,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -7202,7 +7356,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -7210,7 +7364,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -7218,7 +7372,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -7226,7 +7380,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -7234,7 +7388,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -7242,7 +7396,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -7250,7 +7404,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -7258,7 +7412,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -7266,7 +7420,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -7274,7 +7428,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -7282,7 +7436,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -7290,7 +7444,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -7298,7 +7452,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -7306,7 +7460,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -7314,7 +7468,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -7322,7 +7476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -7330,7 +7484,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -7338,7 +7492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -7346,7 +7500,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -7354,7 +7508,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -7362,7 +7516,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -7370,7 +7524,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -7378,7 +7532,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -7386,7 +7540,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -7394,7 +7548,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -7402,7 +7556,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -7410,7 +7564,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -7418,7 +7572,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -7426,7 +7580,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -7434,7 +7588,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -7442,7 +7596,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -7450,7 +7604,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -7458,7 +7612,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2">
       <c r="A585" s="2">
         <v>584</v>
       </c>
@@ -7466,7 +7620,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2">
       <c r="A586" s="2">
         <v>585</v>
       </c>
@@ -7474,7 +7628,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2">
       <c r="A587" s="2">
         <v>586</v>
       </c>
@@ -7482,7 +7636,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2">
       <c r="A588" s="2">
         <v>587</v>
       </c>
@@ -7490,7 +7644,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2">
       <c r="A589" s="2">
         <v>588</v>
       </c>
@@ -7498,7 +7652,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2">
       <c r="A590" s="2">
         <v>589</v>
       </c>
@@ -7506,7 +7660,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2">
       <c r="A591" s="2">
         <v>590</v>
       </c>
@@ -7514,7 +7668,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2">
       <c r="A592" s="2">
         <v>591</v>
       </c>
@@ -7522,7 +7676,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2">
       <c r="A593" s="2">
         <v>592</v>
       </c>
@@ -7530,7 +7684,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2">
       <c r="A594" s="2">
         <v>593</v>
       </c>
@@ -7538,7 +7692,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2">
       <c r="A595" s="2">
         <v>594</v>
       </c>
@@ -7546,7 +7700,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2">
       <c r="A596" s="2">
         <v>595</v>
       </c>
@@ -7554,7 +7708,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2">
       <c r="A597" s="2">
         <v>596</v>
       </c>
@@ -7562,7 +7716,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2">
       <c r="A598" s="2">
         <v>597</v>
       </c>
@@ -7570,7 +7724,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2">
       <c r="A599" s="2">
         <v>598</v>
       </c>
@@ -7578,7 +7732,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2">
       <c r="A600" s="2">
         <v>599</v>
       </c>
@@ -7586,7 +7740,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2">
       <c r="A601" s="2">
         <v>600</v>
       </c>
@@ -7594,7 +7748,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2">
       <c r="A602" s="2">
         <v>601</v>
       </c>
@@ -7602,7 +7756,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2">
       <c r="A603" s="2">
         <v>602</v>
       </c>
@@ -7610,7 +7764,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2">
       <c r="A604" s="2">
         <v>603</v>
       </c>
@@ -7618,7 +7772,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2">
       <c r="A605" s="2">
         <v>604</v>
       </c>
@@ -7626,7 +7780,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2">
       <c r="A606" s="2">
         <v>605</v>
       </c>
@@ -7634,7 +7788,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2">
       <c r="A607" s="2">
         <v>606</v>
       </c>
@@ -7642,7 +7796,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2">
       <c r="A608" s="2">
         <v>607</v>
       </c>
@@ -7650,7 +7804,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2">
       <c r="A609" s="2">
         <v>608</v>
       </c>
@@ -7658,7 +7812,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2">
       <c r="A610" s="2">
         <v>609</v>
       </c>
@@ -7666,7 +7820,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2">
       <c r="A611" s="2">
         <v>610</v>
       </c>
@@ -7674,7 +7828,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2">
       <c r="A612" s="2">
         <v>611</v>
       </c>
@@ -7682,7 +7836,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2">
       <c r="A613" s="2">
         <v>612</v>
       </c>
@@ -7690,7 +7844,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2">
       <c r="A614" s="2">
         <v>613</v>
       </c>
@@ -7698,7 +7852,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2">
       <c r="A615" s="2">
         <v>614</v>
       </c>
@@ -7706,7 +7860,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2">
       <c r="A616" s="2">
         <v>615</v>
       </c>
@@ -7714,7 +7868,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2">
       <c r="A617" s="2">
         <v>616</v>
       </c>
@@ -7722,7 +7876,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2">
       <c r="A618" s="2">
         <v>617</v>
       </c>
@@ -7730,7 +7884,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2">
       <c r="A619" s="2">
         <v>618</v>
       </c>
@@ -7738,7 +7892,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2">
       <c r="A620" s="2">
         <v>619</v>
       </c>
@@ -7746,7 +7900,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2">
       <c r="A621" s="2">
         <v>620</v>
       </c>
@@ -7754,7 +7908,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2">
       <c r="A622" s="2">
         <v>621</v>
       </c>
@@ -7762,7 +7916,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2">
       <c r="A623" s="2">
         <v>622</v>
       </c>
@@ -7770,7 +7924,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2">
       <c r="A624" s="2">
         <v>623</v>
       </c>
@@ -7778,7 +7932,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4">
       <c r="A625" s="2">
         <v>624</v>
       </c>
@@ -7786,7 +7940,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4">
       <c r="A626" s="2">
         <v>625</v>
       </c>
@@ -7794,7 +7948,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4">
       <c r="A627" s="2">
         <v>626</v>
       </c>
@@ -7802,7 +7956,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4">
       <c r="A628" s="2">
         <v>627</v>
       </c>
@@ -7810,7 +7964,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4">
       <c r="A629" s="2">
         <v>628</v>
       </c>
@@ -7818,7 +7972,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4">
       <c r="A630" s="2">
         <v>629</v>
       </c>
@@ -7826,7 +7980,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4">
       <c r="A631" s="2">
         <v>630</v>
       </c>
@@ -7834,7 +7988,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4">
       <c r="A632" s="2">
         <v>631</v>
       </c>
@@ -7842,7 +7996,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4">
       <c r="A633" s="2">
         <v>632</v>
       </c>
@@ -7850,7 +8004,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4">
       <c r="A634" s="2">
         <v>633</v>
       </c>
@@ -7858,7 +8012,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4">
       <c r="A635" s="2">
         <v>634</v>
       </c>
@@ -7866,7 +8020,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4">
       <c r="A636" s="2">
         <v>635</v>
       </c>
@@ -7874,7 +8028,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4">
       <c r="A637" s="2">
         <v>636</v>
       </c>
@@ -7882,7 +8036,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4">
       <c r="A638" s="2">
         <v>637</v>
       </c>
@@ -7890,7 +8044,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -7904,7 +8058,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -7918,7 +8072,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:4">
       <c r="C641" s="3" t="s">
         <v>630</v>
       </c>
@@ -7926,7 +8080,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:4">
       <c r="B642" s="3" t="s">
         <v>657</v>
       </c>
@@ -7937,7 +8091,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:4">
       <c r="B643" s="3" t="s">
         <v>635</v>
       </c>
@@ -7948,7 +8102,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:4">
       <c r="B644" s="3" t="s">
         <v>653</v>
       </c>
@@ -7959,7 +8113,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:4">
       <c r="B645" s="3" t="s">
         <v>640</v>
       </c>
@@ -7970,7 +8124,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:4">
       <c r="B646" s="3" t="s">
         <v>654</v>
       </c>
@@ -7981,7 +8135,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:4">
       <c r="B647" s="3" t="s">
         <v>645</v>
       </c>
@@ -7992,7 +8146,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:4">
       <c r="B648" s="3" t="s">
         <v>647</v>
       </c>
@@ -8003,7 +8157,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:4">
       <c r="B649" s="3" t="s">
         <v>265</v>
       </c>
@@ -8014,7 +8168,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:4">
       <c r="B650" s="3" t="s">
         <v>679</v>
       </c>
@@ -8025,7 +8179,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:4">
       <c r="B651" s="3" t="s">
         <v>701</v>
       </c>
@@ -8036,7 +8190,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:4">
       <c r="C652" s="3" t="s">
         <v>704</v>
       </c>
@@ -8044,7 +8198,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:4">
       <c r="C653" s="3" t="s">
         <v>706</v>
       </c>
@@ -8052,7 +8206,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:4">
       <c r="C654" s="3" t="s">
         <v>708</v>
       </c>
@@ -8060,7 +8214,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:4">
       <c r="C655" s="3" t="s">
         <v>710</v>
       </c>
@@ -8068,7 +8222,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:4">
       <c r="C656" s="3" t="s">
         <v>712</v>
       </c>
@@ -8076,7 +8230,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="657" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:4">
       <c r="C657" s="3" t="s">
         <v>714</v>
       </c>
@@ -8084,7 +8238,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="658" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:4">
       <c r="C658" s="3" t="s">
         <v>716</v>
       </c>
@@ -8092,7 +8246,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="659" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:4">
       <c r="C659" s="3" t="s">
         <v>718</v>
       </c>
@@ -8100,7 +8254,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="660" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:4">
       <c r="C660" s="3" t="s">
         <v>720</v>
       </c>
@@ -8108,7 +8262,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="661" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:4">
       <c r="C661" s="3" t="s">
         <v>722</v>
       </c>
@@ -8116,7 +8270,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="662" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:4">
       <c r="C662" s="3" t="s">
         <v>724</v>
       </c>
@@ -8124,7 +8278,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="663" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:4">
       <c r="C663" s="3" t="s">
         <v>726</v>
       </c>
@@ -8132,7 +8286,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="664" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:4">
       <c r="C664" s="3" t="s">
         <v>728</v>
       </c>
@@ -8140,12 +8294,23 @@
         <v>729</v>
       </c>
     </row>
-    <row r="665" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:4">
       <c r="C665" s="3" t="s">
         <v>730</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>731</v>
+      </c>
+    </row>
+    <row r="666" spans="2:4">
+      <c r="B666" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A191DC-7067-A544-8319-6B2D0A7A35F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF401EC-FF26-D548-A6BB-968E20419C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8260" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
+    <workbookView xWindow="-15200" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="781">
   <si>
     <t>English</t>
   </si>
@@ -2318,6 +2318,84 @@
   </si>
   <si>
     <t>sal də bɛ̃ / twa.lɛt</t>
+  </si>
+  <si>
+    <t>monsieur/messieurs</t>
+  </si>
+  <si>
+    <t>mə.sjø / me.sjø</t>
+  </si>
+  <si>
+    <t>de.zi.ʁe</t>
+  </si>
+  <si>
+    <t>vous désirez / désirer</t>
+  </si>
+  <si>
+    <t>croisssants</t>
+  </si>
+  <si>
+    <t>kʁwa.sɑ̃</t>
+  </si>
+  <si>
+    <t>chauds</t>
+  </si>
+  <si>
+    <t>ʃo</t>
+  </si>
+  <si>
+    <t>gentil</t>
+  </si>
+  <si>
+    <t>ʒɑ̃.ti</t>
+  </si>
+  <si>
+    <t>tus</t>
+  </si>
+  <si>
+    <t>tous (adj)</t>
+  </si>
+  <si>
+    <t>tous (p.noun)</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>tartines</t>
+  </si>
+  <si>
+    <t>taʁ.tin</t>
+  </si>
+  <si>
+    <t>beurré</t>
+  </si>
+  <si>
+    <t>bœʁ</t>
+  </si>
+  <si>
+    <t>excusez-moi</t>
+  </si>
+  <si>
+    <t>ɛk.sky.ze.mwa</t>
+  </si>
+  <si>
+    <t>dépêchez-vous</t>
+  </si>
+  <si>
+    <t>de.pɛ.ʃe / de.pe.ʃe</t>
+  </si>
+  <si>
+    <t>toujours</t>
+  </si>
+  <si>
+    <t>tu.ʒuʁ</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>hurry up (you)</t>
   </si>
 </sst>
 </file>
@@ -2692,11 +2770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E666"/>
+  <dimension ref="A1:E678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B678" sqref="B678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -8313,6 +8391,111 @@
         <v>736</v>
       </c>
     </row>
+    <row r="667" spans="2:4">
+      <c r="C667" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="668" spans="2:4">
+      <c r="C668" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="669" spans="2:4">
+      <c r="C669" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="670" spans="2:4">
+      <c r="C670" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="671" spans="2:4">
+      <c r="C671" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="672" spans="2:4">
+      <c r="C672" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="673" spans="2:5">
+      <c r="C673" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="674" spans="2:5">
+      <c r="C674" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="675" spans="2:5">
+      <c r="C675" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="676" spans="2:5">
+      <c r="C676" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="677" spans="2:5">
+      <c r="B677" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="678" spans="2:5">
+      <c r="B678" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{79009A72-7DCF-7E48-B420-20A4F7B69C3C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF401EC-FF26-D548-A6BB-968E20419C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E0278B-63F0-CC4D-93FE-9C381054960F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15200" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="817">
   <si>
     <t>English</t>
   </si>
@@ -2396,6 +2396,114 @@
   </si>
   <si>
     <t>hurry up (you)</t>
+  </si>
+  <si>
+    <t>quatrième leçon</t>
+  </si>
+  <si>
+    <t>ka.tʁi.jɛm</t>
+  </si>
+  <si>
+    <t>commandons</t>
+  </si>
+  <si>
+    <t>kɔ.mɑ̃.do</t>
+  </si>
+  <si>
+    <t>noirs</t>
+  </si>
+  <si>
+    <t>let's order</t>
+  </si>
+  <si>
+    <t>bơ</t>
+  </si>
+  <si>
+    <t>nwaʁ</t>
+  </si>
+  <si>
+    <t>bières</t>
+  </si>
+  <si>
+    <t>verre</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>bjɛʁ</t>
+  </si>
+  <si>
+    <t>al.mɑ̃</t>
+  </si>
+  <si>
+    <t>vɛʁ</t>
+  </si>
+  <si>
+    <t>blɑ̃</t>
+  </si>
+  <si>
+    <t>slices (of bread)</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>allemand / allemandes</t>
+  </si>
+  <si>
+    <t>paquets</t>
+  </si>
+  <si>
+    <t>cigarettes brunes</t>
+  </si>
+  <si>
+    <t>tabac</t>
+  </si>
+  <si>
+    <t>tobacco shop</t>
+  </si>
+  <si>
+    <t>packet</t>
+  </si>
+  <si>
+    <t>brown cigarettes</t>
+  </si>
+  <si>
+    <t>cigare hollandais</t>
+  </si>
+  <si>
+    <t>dutch cigar</t>
+  </si>
+  <si>
+    <t>briquet rouge</t>
+  </si>
+  <si>
+    <t>red lighter</t>
+  </si>
+  <si>
+    <t>je suis désolé</t>
+  </si>
+  <si>
+    <t>im sorry</t>
+  </si>
+  <si>
+    <t>pa.kɛ</t>
+  </si>
+  <si>
+    <t>si.ga.ʁɛt bʁyn</t>
+  </si>
+  <si>
+    <t>si.ga ɔ.lɑ̃.dɛ</t>
+  </si>
+  <si>
+    <t>bʁi.kɛt ʁuʒ</t>
+  </si>
+  <si>
+    <t>ʒə sɥi de.zɔ.le</t>
+  </si>
+  <si>
+    <t>ta.ba</t>
   </si>
 </sst>
 </file>
@@ -2770,11 +2878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E678"/>
+  <dimension ref="A1:E691"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B678" sqref="B678"/>
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D697" sqref="D697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -8448,6 +8556,9 @@
       </c>
     </row>
     <row r="674" spans="2:5">
+      <c r="B674" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="C674" s="3" t="s">
         <v>769</v>
       </c>
@@ -8459,6 +8570,9 @@
       </c>
     </row>
     <row r="675" spans="2:5">
+      <c r="B675" s="3" t="s">
+        <v>787</v>
+      </c>
       <c r="C675" s="3" t="s">
         <v>771</v>
       </c>
@@ -8494,6 +8608,152 @@
       </c>
       <c r="D678" s="3" t="s">
         <v>778</v>
+      </c>
+    </row>
+    <row r="679" spans="2:5">
+      <c r="C679" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="680" spans="2:5">
+      <c r="B680" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5">
+      <c r="B681" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="682" spans="2:5">
+      <c r="B682" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="683" spans="2:5">
+      <c r="B683" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="684" spans="2:5">
+      <c r="B684" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="685" spans="2:5">
+      <c r="B685" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="686" spans="2:5">
+      <c r="B686" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="687" spans="2:5">
+      <c r="B687" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="688" spans="2:5">
+      <c r="B688" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4">
+      <c r="B689" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4">
+      <c r="B690" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4">
+      <c r="B691" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E0278B-63F0-CC4D-93FE-9C381054960F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90F05E-80F7-B94D-B883-3CAE394285A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15200" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="878">
   <si>
     <t>English</t>
   </si>
@@ -2504,6 +2505,189 @@
   </si>
   <si>
     <t>ta.ba</t>
+  </si>
+  <si>
+    <t>dans</t>
+  </si>
+  <si>
+    <t>la rue</t>
+  </si>
+  <si>
+    <t>dɑ̃</t>
+  </si>
+  <si>
+    <t>la ʁy</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>feu</t>
+  </si>
+  <si>
+    <t>fume</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>fø</t>
+  </si>
+  <si>
+    <t>ply</t>
+  </si>
+  <si>
+    <t>fym</t>
+  </si>
+  <si>
+    <t>the road</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>plus/more</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>la table</t>
+  </si>
+  <si>
+    <t>la route</t>
+  </si>
+  <si>
+    <t>l'arbre</t>
+  </si>
+  <si>
+    <t>tabl</t>
+  </si>
+  <si>
+    <t>ʁut</t>
+  </si>
+  <si>
+    <t>aʁbʁ</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>deux</t>
+  </si>
+  <si>
+    <t>trois</t>
+  </si>
+  <si>
+    <t>quatre</t>
+  </si>
+  <si>
+    <t>cinq</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>huit</t>
+  </si>
+  <si>
+    <t>neuf</t>
+  </si>
+  <si>
+    <t>dix</t>
+  </si>
+  <si>
+    <t>onze</t>
+  </si>
+  <si>
+    <t>douze</t>
+  </si>
+  <si>
+    <t>treize</t>
+  </si>
+  <si>
+    <t>quatorze</t>
+  </si>
+  <si>
+    <t>quinze</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t>dix-sept</t>
+  </si>
+  <si>
+    <t>dix-huit</t>
+  </si>
+  <si>
+    <t>dix-neuf</t>
+  </si>
+  <si>
+    <t>vignt</t>
+  </si>
+  <si>
+    <t>œ̃ / ɛ̃</t>
+  </si>
+  <si>
+    <t>dø</t>
+  </si>
+  <si>
+    <t>tʁwɑ</t>
+  </si>
+  <si>
+    <t>katʁ</t>
+  </si>
+  <si>
+    <t>sɛ̃k</t>
+  </si>
+  <si>
+    <t>sis</t>
+  </si>
+  <si>
+    <t>sɛt</t>
+  </si>
+  <si>
+    <t>ɥit</t>
+  </si>
+  <si>
+    <t>nœf</t>
+  </si>
+  <si>
+    <t>dis</t>
+  </si>
+  <si>
+    <t>ɔ̃z</t>
+  </si>
+  <si>
+    <t>duz</t>
+  </si>
+  <si>
+    <t>tʁɛz</t>
+  </si>
+  <si>
+    <t>ka.tɔʁz</t>
+  </si>
+  <si>
+    <t>kɛ̃z</t>
+  </si>
+  <si>
+    <t>sɛz</t>
+  </si>
+  <si>
+    <t>vɛ̃</t>
+  </si>
+  <si>
+    <t>di.zɥit</t>
   </si>
 </sst>
 </file>
@@ -2878,11 +3062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E691"/>
+  <dimension ref="A1:E721"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D697" sqref="D697"/>
+      <pane ySplit="1" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D719" sqref="D719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -8723,7 +8907,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="689" spans="2:4">
+    <row r="689" spans="2:5">
       <c r="B689" s="3" t="s">
         <v>806</v>
       </c>
@@ -8734,7 +8918,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="690" spans="2:4">
+    <row r="690" spans="2:5">
       <c r="B690" s="3" t="s">
         <v>808</v>
       </c>
@@ -8745,7 +8929,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="691" spans="2:4">
+    <row r="691" spans="2:5">
       <c r="B691" s="3" t="s">
         <v>810</v>
       </c>
@@ -8754,6 +8938,342 @@
       </c>
       <c r="D691" s="3" t="s">
         <v>815</v>
+      </c>
+    </row>
+    <row r="692" spans="2:5">
+      <c r="B692" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="693" spans="2:5">
+      <c r="B693" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="694" spans="2:5">
+      <c r="B694" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="695" spans="2:5">
+      <c r="B695" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="696" spans="2:5">
+      <c r="B696" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="697" spans="2:5">
+      <c r="B697" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="698" spans="2:5">
+      <c r="B698" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="699" spans="2:5">
+      <c r="B699" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E699" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="700" spans="2:5">
+      <c r="B700" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="701" spans="2:5">
+      <c r="B701" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E701" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="702" spans="2:5">
+      <c r="B702" s="1">
+        <v>1</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="703" spans="2:5">
+      <c r="B703" s="1">
+        <v>2</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="704" spans="2:5">
+      <c r="B704" s="1">
+        <v>3</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="705" spans="2:4">
+      <c r="B705" s="1">
+        <v>4</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="706" spans="2:4">
+      <c r="B706" s="1">
+        <v>5</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4">
+      <c r="B707" s="1">
+        <v>6</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4">
+      <c r="B708" s="1">
+        <v>7</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4">
+      <c r="B709" s="1">
+        <v>8</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4">
+      <c r="B710" s="1">
+        <v>9</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4">
+      <c r="B711" s="1">
+        <v>10</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="712" spans="2:4">
+      <c r="B712" s="1">
+        <v>11</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="713" spans="2:4">
+      <c r="B713" s="1">
+        <v>12</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="714" spans="2:4">
+      <c r="B714" s="1">
+        <v>13</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="715" spans="2:4">
+      <c r="B715" s="1">
+        <v>14</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="716" spans="2:4">
+      <c r="B716" s="1">
+        <v>15</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="717" spans="2:4">
+      <c r="B717" s="1">
+        <v>16</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="718" spans="2:4">
+      <c r="B718" s="1">
+        <v>17</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="719" spans="2:4">
+      <c r="B719" s="1">
+        <v>18</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="720" spans="2:4">
+      <c r="B720" s="1">
+        <v>19</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="721" spans="2:4">
+      <c r="B721" s="1">
+        <v>20</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -8761,4 +9281,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA89DD5-CD61-8B46-9219-77CA9EA380CB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90F05E-80F7-B94D-B883-3CAE394285A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCB83B-F51D-B74A-A0B6-697CE2764A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15200" yWindow="-20720" windowWidth="24060" windowHeight="17540" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
+    <workbookView xWindow="18380" yWindow="2780" windowWidth="14400" windowHeight="17440" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="915">
   <si>
     <t>English</t>
   </si>
@@ -2688,6 +2688,117 @@
   </si>
   <si>
     <t>di.zɥit</t>
+  </si>
+  <si>
+    <t>mademoiselle</t>
+  </si>
+  <si>
+    <t>de rien</t>
+  </si>
+  <si>
+    <t>mad.mwa.zɛl</t>
+  </si>
+  <si>
+    <t>ʁjɛ̃</t>
+  </si>
+  <si>
+    <t>you are welcome</t>
+  </si>
+  <si>
+    <t>des idées</t>
+  </si>
+  <si>
+    <t>toutes faites</t>
+  </si>
+  <si>
+    <t>de i.de</t>
+  </si>
+  <si>
+    <t>tut fɛt</t>
+  </si>
+  <si>
+    <t>histoires</t>
+  </si>
+  <si>
+    <t>is.twaʁ</t>
+  </si>
+  <si>
+    <t>romantiques</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>ʁo.mɑ̃.tik</t>
+  </si>
+  <si>
+    <t>drôles</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>dʁol</t>
+  </si>
+  <si>
+    <t>pʁe.fe.ʁe / pʁe.fɛʁ</t>
+  </si>
+  <si>
+    <t>préfér / préfèrent</t>
+  </si>
+  <si>
+    <t>dicton</t>
+  </si>
+  <si>
+    <t>dik.tɔ̃</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>comptes</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>kɔ̃t</t>
+  </si>
+  <si>
+    <t>fɔ̃</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hirondelle</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>printemps</t>
+  </si>
+  <si>
+    <t>i.ʁɔ̃.dɛl</t>
+  </si>
+  <si>
+    <t>fɛ</t>
+  </si>
+  <si>
+    <t>pʁɛ̃.tɑ̃</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>accountability</t>
   </si>
 </sst>
 </file>
@@ -3062,11 +3173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E721"/>
+  <dimension ref="A1:E735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D719" sqref="D719"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C730" sqref="C730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -3074,7 +3185,7 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -9274,6 +9385,151 @@
       </c>
       <c r="D721" s="3" t="s">
         <v>876</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4">
+      <c r="C722" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4">
+      <c r="B723" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4">
+      <c r="C724" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4">
+      <c r="C725" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="726" spans="2:4">
+      <c r="B726" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4">
+      <c r="B727" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4">
+      <c r="B728" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="729" spans="2:4">
+      <c r="B729" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4">
+      <c r="B730" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="731" spans="2:4">
+      <c r="B731" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4">
+      <c r="B732" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4">
+      <c r="B733" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4">
+      <c r="B734" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4">
+      <c r="B735" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCB83B-F51D-B74A-A0B6-697CE2764A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25175C7D-0CBC-8F4F-A8A1-5F2070DCF916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18380" yWindow="2780" windowWidth="14400" windowHeight="17440" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="925">
   <si>
     <t>English</t>
   </si>
@@ -2799,6 +2799,36 @@
   </si>
   <si>
     <t>accountability</t>
+  </si>
+  <si>
+    <t>maintenant</t>
+  </si>
+  <si>
+    <t>mɛ̃t.nɑ̃</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>dommage</t>
+  </si>
+  <si>
+    <t>dɔ.maʒ</t>
+  </si>
+  <si>
+    <t>ordinaire</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>donnez-moi</t>
+  </si>
+  <si>
+    <t>give me (donate me)</t>
+  </si>
+  <si>
+    <t>dɔ.ne-mwa</t>
   </si>
 </sst>
 </file>
@@ -3173,11 +3203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E735"/>
+  <dimension ref="A1:E739"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C730" sqref="C730"/>
+      <pane ySplit="1" topLeftCell="A721" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B726" sqref="B726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -9530,6 +9560,44 @@
       </c>
       <c r="D735" s="3" t="s">
         <v>912</v>
+      </c>
+    </row>
+    <row r="736" spans="2:4">
+      <c r="B736" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="737" spans="2:4">
+      <c r="C737" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="738" spans="2:4">
+      <c r="B738" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="739" spans="2:4">
+      <c r="B739" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlekhacman/go/src/github.com/lekhacman/french/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25175C7D-0CBC-8F4F-A8A1-5F2070DCF916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27906B22-3AE9-E44F-887A-D1DD86851494}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18380" yWindow="2780" windowWidth="14400" windowHeight="17440" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
+    <workbookView xWindow="14900" yWindow="1580" windowWidth="17400" windowHeight="17440" xr2:uid="{D8ED466C-B49E-5F46-9F15-EBAB31A0E30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="993">
   <si>
     <t>English</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>beverage</t>
-  </si>
-  <si>
-    <t>bicycle</t>
   </si>
   <si>
     <t>big/large</t>
@@ -2830,12 +2827,219 @@
   <si>
     <t>dɔ.ne-mwa</t>
   </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>by.ʁo</t>
+  </si>
+  <si>
+    <t>voulez</t>
+  </si>
+  <si>
+    <t>vu.le</t>
+  </si>
+  <si>
+    <t>la dérangez</t>
+  </si>
+  <si>
+    <t>de.ʁɑ̃.ʒe</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>rentre</t>
+  </si>
+  <si>
+    <t>normalement</t>
+  </si>
+  <si>
+    <t>ʁɑ̃.tʁ</t>
+  </si>
+  <si>
+    <t>nɔʁ.mal.mɑ̃</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>l'adresse</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>cherche</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>avant</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>vous</t>
+  </si>
+  <si>
+    <t>il/elle</t>
+  </si>
+  <si>
+    <t>ils/elles</t>
+  </si>
+  <si>
+    <t>nous</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>sommes</t>
+  </si>
+  <si>
+    <t>êtes</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>to travel</t>
+  </si>
+  <si>
+    <t>aller</t>
+  </si>
+  <si>
+    <t>vais</t>
+  </si>
+  <si>
+    <t>vas</t>
+  </si>
+  <si>
+    <t>allez</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>vont</t>
+  </si>
+  <si>
+    <t>allons</t>
+  </si>
+  <si>
+    <t>he/she/it</t>
+  </si>
+  <si>
+    <t>être</t>
+  </si>
+  <si>
+    <t>https://www.collinsdictionary.com/dictionary/french-english/%C3%Aatre</t>
+  </si>
+  <si>
+    <t>la plage</t>
+  </si>
+  <si>
+    <t>plaʒ</t>
+  </si>
+  <si>
+    <t>la barbe</t>
+  </si>
+  <si>
+    <t>baʁb</t>
+  </si>
+  <si>
+    <t>battre</t>
+  </si>
+  <si>
+    <t>batʁ</t>
+  </si>
+  <si>
+    <t>belle/beau</t>
+  </si>
+  <si>
+    <t>bɛl/bo</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>ʃɑ̃bʁ</t>
+  </si>
+  <si>
+    <t>la bière</t>
+  </si>
+  <si>
+    <t>la chambre</t>
+  </si>
+  <si>
+    <t>le boeuf</t>
+  </si>
+  <si>
+    <t>bœf</t>
+  </si>
+  <si>
+    <t>plier</t>
+  </si>
+  <si>
+    <t>pli.je</t>
+  </si>
+  <si>
+    <t>la boisson</t>
+  </si>
+  <si>
+    <t>bwa.sɔ̃</t>
+  </si>
+  <si>
+    <t>la bicyclette / le vélo</t>
+  </si>
+  <si>
+    <t>bicycle / bike</t>
+  </si>
+  <si>
+    <t>bi.si.klɛt / ve.lo</t>
+  </si>
+  <si>
+    <t>grand / grande</t>
+  </si>
+  <si>
+    <t>portefeuille</t>
+  </si>
+  <si>
+    <t>pɔʁ.tə.fœj</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2854,6 +3058,14 @@
       <sz val="20"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2879,18 +3091,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3203,11 +3418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E3DDF3-5F2F-F747-8260-C0F186C497B3}">
-  <dimension ref="A1:E739"/>
+  <dimension ref="A1:E748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A721" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B726" sqref="B726"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C751" sqref="C751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -3222,7 +3437,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3245,10 +3460,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3259,13 +3474,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3276,10 +3491,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3290,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3307,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3318,10 +3533,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3332,10 +3547,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3346,10 +3561,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3360,13 +3575,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>674</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3377,13 +3592,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3394,10 +3609,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3408,13 +3623,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>685</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3425,10 +3640,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3442,7 +3657,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3453,13 +3668,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>690</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3470,13 +3685,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>692</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3487,10 +3702,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3501,13 +3716,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3518,13 +3733,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>698</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3535,13 +3750,13 @@
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>700</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3552,10 +3767,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3566,10 +3781,10 @@
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3580,13 +3795,13 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3597,10 +3812,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3611,10 +3826,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3625,10 +3840,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3639,10 +3854,10 @@
         <v>30</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3653,10 +3868,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3667,10 +3882,10 @@
         <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3680,6 +3895,15 @@
       <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
@@ -3688,133 +3912,205 @@
       <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>988</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3822,7 +4118,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3830,7 +4126,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3838,7 +4134,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3846,7 +4142,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3854,7 +4150,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3862,7 +4158,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3870,7 +4166,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3878,7 +4174,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3886,7 +4182,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3894,7 +4190,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3902,7 +4198,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3910,7 +4206,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3918,7 +4214,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3926,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3934,7 +4230,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3942,7 +4238,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3950,7 +4246,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3958,7 +4254,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3966,7 +4262,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3974,7 +4270,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3982,7 +4278,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3990,7 +4286,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3998,7 +4294,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4006,7 +4302,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4014,7 +4310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4022,7 +4318,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4030,7 +4326,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4038,7 +4334,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4046,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4054,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4062,7 +4358,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4070,7 +4366,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4078,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4086,7 +4382,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4094,7 +4390,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4102,7 +4398,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4110,7 +4406,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4118,7 +4414,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4126,7 +4422,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4134,7 +4430,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4142,7 +4438,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4150,7 +4446,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4158,7 +4454,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4166,7 +4462,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4174,7 +4470,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4182,7 +4478,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4190,7 +4486,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4198,7 +4494,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4206,7 +4502,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4214,7 +4510,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4222,7 +4518,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4230,7 +4526,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4238,7 +4534,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4246,7 +4542,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4254,7 +4550,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4262,7 +4558,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4270,7 +4566,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4278,7 +4574,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4286,7 +4582,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4294,7 +4590,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4302,7 +4598,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4310,7 +4606,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4318,7 +4614,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4326,7 +4622,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4334,7 +4630,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4342,7 +4638,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4350,7 +4646,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4358,7 +4654,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4366,7 +4662,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4374,7 +4670,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4382,7 +4678,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4390,7 +4686,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4398,7 +4694,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4406,7 +4702,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4414,7 +4710,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4422,7 +4718,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4430,7 +4726,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4438,7 +4734,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4454,7 +4750,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4462,7 +4758,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4470,7 +4766,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4478,7 +4774,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4486,7 +4782,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4494,7 +4790,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4502,7 +4798,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4510,7 +4806,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4518,7 +4814,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4526,7 +4822,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4534,7 +4830,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4542,7 +4838,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4550,7 +4846,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4558,7 +4854,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4566,7 +4862,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4574,7 +4870,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4582,7 +4878,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4590,7 +4886,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4598,7 +4894,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4606,7 +4902,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4614,7 +4910,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4622,7 +4918,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4630,7 +4926,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4638,7 +4934,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4646,7 +4942,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4654,7 +4950,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4662,7 +4958,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4670,7 +4966,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4678,7 +4974,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4686,7 +4982,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4694,7 +4990,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4702,7 +4998,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4710,7 +5006,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4718,7 +5014,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4726,7 +5022,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4734,7 +5030,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4742,7 +5038,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4750,7 +5046,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4758,7 +5054,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4766,7 +5062,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4774,7 +5070,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4782,7 +5078,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4790,7 +5086,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4798,7 +5094,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4806,7 +5102,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4814,7 +5110,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4822,7 +5118,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4830,7 +5126,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4838,7 +5134,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4846,7 +5142,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4854,7 +5150,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4862,7 +5158,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4870,7 +5166,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4878,7 +5174,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4886,7 +5182,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4894,7 +5190,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4902,7 +5198,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4910,7 +5206,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4918,7 +5214,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4926,7 +5222,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4934,7 +5230,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4942,7 +5238,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4950,7 +5246,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4958,7 +5254,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4966,7 +5262,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4974,7 +5270,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4982,7 +5278,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4990,7 +5286,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4998,7 +5294,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5006,7 +5302,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5014,7 +5310,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5022,7 +5318,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5030,7 +5326,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5038,7 +5334,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5046,7 +5342,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5054,7 +5350,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5062,7 +5358,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5070,7 +5366,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5078,7 +5374,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5086,7 +5382,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5094,7 +5390,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5102,7 +5398,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5110,7 +5406,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5118,7 +5414,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5126,7 +5422,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5134,7 +5430,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5142,7 +5438,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5150,7 +5446,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5158,7 +5454,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5166,7 +5462,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5174,7 +5470,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -5182,7 +5478,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5190,7 +5486,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -5198,7 +5494,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -5206,7 +5502,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -5214,7 +5510,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5222,7 +5518,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -5230,7 +5526,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5238,7 +5534,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -5246,7 +5542,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5254,7 +5550,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5262,7 +5558,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -5270,7 +5566,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -5278,7 +5574,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5286,7 +5582,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5294,7 +5590,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -5302,7 +5598,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5310,7 +5606,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -5318,7 +5614,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -5326,7 +5622,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -5334,7 +5630,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -5342,7 +5638,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -5350,7 +5646,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5358,7 +5654,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5366,7 +5662,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5374,7 +5670,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -5382,7 +5678,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -5390,7 +5686,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5398,7 +5694,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5406,7 +5702,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5414,7 +5710,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5422,7 +5718,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -5430,7 +5726,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -5438,7 +5734,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -5446,7 +5742,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -5454,7 +5750,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -5462,7 +5758,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -5470,7 +5766,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -5478,7 +5774,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -5486,7 +5782,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5494,7 +5790,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5502,7 +5798,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -5510,7 +5806,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -5518,7 +5814,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5526,7 +5822,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5534,7 +5830,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5542,7 +5838,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5550,7 +5846,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5558,7 +5854,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5566,7 +5862,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5574,7 +5870,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5582,7 +5878,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5590,7 +5886,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5598,7 +5894,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5606,7 +5902,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5614,7 +5910,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5622,7 +5918,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5630,7 +5926,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5638,7 +5934,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5646,7 +5942,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5654,7 +5950,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5662,7 +5958,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5670,7 +5966,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5678,7 +5974,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5686,7 +5982,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5694,7 +5990,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5702,7 +5998,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5710,7 +6006,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5718,7 +6014,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5726,7 +6022,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5734,7 +6030,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5742,7 +6038,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5750,7 +6046,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5758,7 +6054,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5766,7 +6062,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5774,7 +6070,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5782,7 +6078,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5790,7 +6086,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5798,7 +6094,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5806,7 +6102,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5814,7 +6110,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5822,7 +6118,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5830,7 +6126,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5838,7 +6134,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5846,7 +6142,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5854,7 +6150,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5862,7 +6158,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5870,7 +6166,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5878,7 +6174,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5886,7 +6182,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5894,7 +6190,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5902,7 +6198,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5910,7 +6206,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5918,7 +6214,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5926,7 +6222,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5934,7 +6230,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5942,7 +6238,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5950,7 +6246,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5958,7 +6254,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5966,7 +6262,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5974,7 +6270,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5982,7 +6278,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5990,7 +6286,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5998,7 +6294,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6006,7 +6302,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6014,7 +6310,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6022,7 +6318,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6030,7 +6326,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6038,7 +6334,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6046,7 +6342,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6054,7 +6350,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6062,7 +6358,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6070,7 +6366,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6078,7 +6374,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6086,7 +6382,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6094,7 +6390,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6102,7 +6398,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6110,13 +6406,13 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6124,7 +6420,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -6132,7 +6428,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6140,7 +6436,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -6148,7 +6444,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -6156,7 +6452,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6164,7 +6460,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6172,7 +6468,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -6180,7 +6476,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -6188,7 +6484,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -6196,7 +6492,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6204,7 +6500,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6212,7 +6508,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -6220,7 +6516,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -6228,7 +6524,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -6236,7 +6532,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6244,7 +6540,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -6252,7 +6548,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -6260,7 +6556,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6268,7 +6564,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -6276,7 +6572,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6284,7 +6580,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -6292,7 +6588,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -6300,7 +6596,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6308,7 +6604,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -6316,7 +6612,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6324,7 +6620,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -6332,7 +6628,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6340,7 +6636,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -6348,7 +6644,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6356,7 +6652,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -6364,7 +6660,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6372,7 +6668,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6380,7 +6676,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6388,7 +6684,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6396,7 +6692,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6404,7 +6700,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6412,7 +6708,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -6420,7 +6716,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6428,7 +6724,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6436,7 +6732,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6444,7 +6740,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6452,7 +6748,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6460,7 +6756,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6468,7 +6764,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6476,7 +6772,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6484,13 +6780,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C381" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -6498,7 +6794,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -6506,7 +6802,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -6514,7 +6810,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -6522,7 +6818,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -6530,7 +6826,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6538,7 +6834,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6546,7 +6842,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6554,7 +6850,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6562,7 +6858,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6570,7 +6866,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6578,7 +6874,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6586,7 +6882,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6594,7 +6890,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6602,7 +6898,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6610,7 +6906,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6618,7 +6914,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6626,7 +6922,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6634,7 +6930,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6642,7 +6938,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6650,7 +6946,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6658,7 +6954,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6666,7 +6962,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6674,7 +6970,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6682,7 +6978,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6690,7 +6986,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6698,7 +6994,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6706,7 +7002,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6714,7 +7010,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6722,7 +7018,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6730,7 +7026,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6738,7 +7034,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6746,7 +7042,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6754,7 +7050,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6762,7 +7058,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6770,7 +7066,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6778,7 +7074,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6786,7 +7082,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6794,7 +7090,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6802,7 +7098,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6810,7 +7106,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6818,7 +7114,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6826,7 +7122,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6834,7 +7130,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6842,7 +7138,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6850,7 +7146,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6858,7 +7154,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6866,7 +7162,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6874,7 +7170,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6882,7 +7178,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6890,7 +7186,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6898,7 +7194,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6906,7 +7202,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6914,7 +7210,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6922,7 +7218,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6930,7 +7226,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6938,7 +7234,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6946,7 +7242,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6954,7 +7250,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6962,7 +7258,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6970,7 +7266,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6978,7 +7274,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6986,7 +7282,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6994,7 +7290,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -7002,7 +7298,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7010,7 +7306,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -7018,7 +7314,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -7026,7 +7322,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -7034,7 +7330,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -7042,7 +7338,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -7050,7 +7346,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -7058,7 +7354,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -7066,7 +7362,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -7074,7 +7370,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -7082,7 +7378,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -7090,7 +7386,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -7098,7 +7394,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -7106,7 +7402,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -7114,7 +7410,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -7122,7 +7418,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7130,7 +7426,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7138,7 +7434,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -7146,7 +7442,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -7154,7 +7450,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -7162,7 +7458,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -7170,7 +7466,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -7178,7 +7474,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7186,7 +7482,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -7194,7 +7490,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -7202,7 +7498,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -7210,7 +7506,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7218,7 +7514,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7226,7 +7522,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -7234,7 +7530,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7242,7 +7538,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -7250,7 +7546,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -7258,7 +7554,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -7266,7 +7562,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7274,7 +7570,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -7282,7 +7578,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -7290,7 +7586,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -7298,7 +7594,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -7306,7 +7602,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7314,7 +7610,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -7322,7 +7618,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7330,7 +7626,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -7338,7 +7634,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -7346,7 +7642,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7354,7 +7650,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -7362,7 +7658,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -7370,7 +7666,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7378,7 +7674,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7386,7 +7682,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7394,7 +7690,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -7402,7 +7698,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -7410,7 +7706,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -7418,7 +7714,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -7426,7 +7722,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -7434,7 +7730,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -7442,7 +7738,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -7450,7 +7746,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -7458,7 +7754,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -7466,7 +7762,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -7474,7 +7770,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -7482,7 +7778,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7490,7 +7786,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -7498,7 +7794,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7506,7 +7802,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7514,7 +7810,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7522,7 +7818,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -7530,7 +7826,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7538,7 +7834,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -7546,7 +7842,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -7554,7 +7850,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -7562,7 +7858,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -7570,7 +7866,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -7578,7 +7874,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -7586,7 +7882,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -7594,7 +7890,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -7602,7 +7898,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -7610,7 +7906,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -7618,7 +7914,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -7626,7 +7922,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -7634,7 +7930,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -7642,7 +7938,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -7650,7 +7946,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -7658,13 +7954,13 @@
         <v>526</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C527" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D527" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -7672,7 +7968,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7680,7 +7976,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7688,7 +7984,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7696,7 +7992,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7704,7 +8000,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7712,7 +8008,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7720,7 +8016,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7728,7 +8024,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7736,7 +8032,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7744,7 +8040,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7752,7 +8048,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7760,7 +8056,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7768,7 +8064,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7776,7 +8072,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7784,7 +8080,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7792,7 +8088,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7800,7 +8096,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7808,7 +8104,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7816,7 +8112,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7824,7 +8120,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7832,7 +8128,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7840,7 +8136,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7848,7 +8144,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7856,7 +8152,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7864,7 +8160,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7872,7 +8168,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7880,7 +8176,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7888,7 +8184,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7896,7 +8192,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7904,7 +8200,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7912,7 +8208,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7920,7 +8216,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7928,7 +8224,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7936,7 +8232,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7944,7 +8240,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7952,7 +8248,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7960,7 +8256,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7968,7 +8264,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7976,7 +8272,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7984,7 +8280,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7992,7 +8288,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -8000,7 +8296,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -8008,7 +8304,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -8016,7 +8312,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -8024,7 +8320,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -8032,7 +8328,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -8040,7 +8336,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -8048,7 +8344,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -8056,7 +8352,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -8064,7 +8360,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -8072,7 +8368,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -8080,7 +8376,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -8088,7 +8384,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -8096,7 +8392,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8104,7 +8400,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8112,7 +8408,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8120,7 +8416,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8128,7 +8424,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -8136,7 +8432,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -8144,7 +8440,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -8152,7 +8448,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -8160,7 +8456,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -8168,7 +8464,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8176,7 +8472,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -8184,7 +8480,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8192,7 +8488,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -8200,7 +8496,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -8208,7 +8504,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8216,7 +8512,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -8224,7 +8520,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -8232,7 +8528,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -8240,7 +8536,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -8248,7 +8544,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -8256,7 +8552,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -8264,7 +8560,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8272,7 +8568,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8280,7 +8576,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -8288,7 +8584,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8296,7 +8592,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -8304,7 +8600,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8312,7 +8608,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -8320,7 +8616,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -8328,7 +8624,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -8336,7 +8632,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8344,7 +8640,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -8352,7 +8648,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -8360,7 +8656,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -8368,7 +8664,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8376,7 +8672,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8384,7 +8680,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -8392,7 +8688,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8400,7 +8696,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -8408,7 +8704,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -8416,7 +8712,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -8424,7 +8720,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -8432,7 +8728,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -8440,7 +8736,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -8448,7 +8744,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -8456,7 +8752,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -8464,7 +8760,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -8472,7 +8768,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -8480,7 +8776,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -8488,7 +8784,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -8496,7 +8792,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -8504,7 +8800,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -8512,7 +8808,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -8520,7 +8816,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -8528,7 +8824,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -8536,7 +8832,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -8544,7 +8840,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -8552,7 +8848,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -8560,13 +8856,13 @@
         <v>638</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -8574,395 +8870,395 @@
         <v>639</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="641" spans="2:4">
       <c r="C641" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="642" spans="2:4">
       <c r="B642" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C642" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D642" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="D642" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="643" spans="2:4">
       <c r="B643" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D643" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="C643" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D643" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="644" spans="2:4">
       <c r="B644" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C644" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D644" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="D644" s="3" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="645" spans="2:4">
       <c r="B645" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D645" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="C645" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D645" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="646" spans="2:4">
       <c r="B646" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C646" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D646" s="3" t="s">
         <v>643</v>
-      </c>
-      <c r="D646" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="647" spans="2:4">
       <c r="B647" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C647" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C647" s="3" t="s">
-        <v>646</v>
-      </c>
       <c r="D647" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="648" spans="2:4">
       <c r="B648" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C648" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C648" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="D648" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="649" spans="2:4">
       <c r="B649" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C649" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D649" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="D649" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="650" spans="2:4">
       <c r="B650" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C650" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C650" s="3" t="s">
+      <c r="D650" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="D650" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="651" spans="2:4">
       <c r="B651" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C651" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C651" s="3" t="s">
+      <c r="D651" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="D651" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="652" spans="2:4">
       <c r="C652" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D652" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="D652" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="653" spans="2:4">
       <c r="C653" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D653" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="D653" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="654" spans="2:4">
       <c r="C654" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D654" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="D654" s="3" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="655" spans="2:4">
       <c r="C655" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D655" s="3" t="s">
         <v>710</v>
-      </c>
-      <c r="D655" s="3" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="656" spans="2:4">
       <c r="C656" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D656" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="D656" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="657" spans="2:4">
       <c r="C657" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D657" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="D657" s="3" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="658" spans="2:4">
       <c r="C658" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D658" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="D658" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="659" spans="2:4">
       <c r="C659" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D659" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="D659" s="3" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="660" spans="2:4">
       <c r="C660" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D660" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="D660" s="3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="661" spans="2:4">
       <c r="C661" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D661" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="D661" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="662" spans="2:4">
       <c r="C662" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D662" s="3" t="s">
         <v>724</v>
-      </c>
-      <c r="D662" s="3" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="663" spans="2:4">
       <c r="C663" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D663" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="D663" s="3" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="664" spans="2:4">
       <c r="C664" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D664" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="D664" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="665" spans="2:4">
       <c r="C665" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D665" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="D665" s="3" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="666" spans="2:4">
       <c r="B666" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C666" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D666" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="D666" s="3" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="667" spans="2:4">
       <c r="C667" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D667" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="D667" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="668" spans="2:4">
       <c r="C668" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="669" spans="2:4">
       <c r="C669" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D669" s="3" t="s">
         <v>759</v>
-      </c>
-      <c r="D669" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="670" spans="2:4">
       <c r="C670" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D670" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="D670" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="671" spans="2:4">
       <c r="C671" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D671" s="3" t="s">
         <v>763</v>
-      </c>
-      <c r="D671" s="3" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="672" spans="2:4">
       <c r="C672" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="673" spans="2:5">
       <c r="C673" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="674" spans="2:5">
       <c r="B674" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C674" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D674" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D674" s="3" t="s">
-        <v>770</v>
-      </c>
       <c r="E674" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="675" spans="2:5">
       <c r="B675" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C675" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D675" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="D675" s="3" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="676" spans="2:5">
       <c r="C676" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D676" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="D676" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="677" spans="2:5">
       <c r="B677" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C677" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D677" s="3" t="s">
         <v>775</v>
-      </c>
-      <c r="D677" s="3" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="678" spans="2:5">
       <c r="B678" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C678" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D678" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="D678" s="3" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="679" spans="2:5">
       <c r="C679" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D679" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="D679" s="3" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="680" spans="2:5">
       <c r="B680" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C680" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D680" s="3" t="s">
         <v>783</v>
-      </c>
-      <c r="D680" s="3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="681" spans="2:5">
       <c r="B681" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="682" spans="2:5">
@@ -8970,237 +9266,237 @@
         <v>40</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="683" spans="2:5">
       <c r="B683" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C683" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C683" s="3" t="s">
-        <v>798</v>
-      </c>
       <c r="D683" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="684" spans="2:5">
       <c r="B684" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="685" spans="2:5">
       <c r="B685" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="686" spans="2:5">
       <c r="B686" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="687" spans="2:5">
       <c r="B687" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E687" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="688" spans="2:5">
       <c r="B688" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="689" spans="2:5">
       <c r="B689" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="690" spans="2:5">
       <c r="B690" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="691" spans="2:5">
       <c r="B691" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="692" spans="2:5">
       <c r="B692" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="693" spans="2:5">
       <c r="B693" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="694" spans="2:5">
       <c r="B694" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="695" spans="2:5">
       <c r="B695" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="696" spans="2:5">
       <c r="B696" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="697" spans="2:5">
       <c r="B697" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="698" spans="2:5">
       <c r="B698" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E698" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="699" spans="2:5">
       <c r="B699" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E699" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="700" spans="2:5">
       <c r="B700" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E700" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="701" spans="2:5">
       <c r="B701" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C701" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C701" s="3" t="s">
+      <c r="D701" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D701" s="3" t="s">
-        <v>703</v>
-      </c>
       <c r="E701" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="702" spans="2:5">
@@ -9208,10 +9504,10 @@
         <v>1</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="703" spans="2:5">
@@ -9219,10 +9515,10 @@
         <v>2</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="704" spans="2:5">
@@ -9230,10 +9526,10 @@
         <v>3</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="705" spans="2:4">
@@ -9241,10 +9537,10 @@
         <v>4</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="706" spans="2:4">
@@ -9252,10 +9548,10 @@
         <v>5</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="707" spans="2:4">
@@ -9263,10 +9559,10 @@
         <v>6</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="708" spans="2:4">
@@ -9274,10 +9570,10 @@
         <v>7</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="709" spans="2:4">
@@ -9285,10 +9581,10 @@
         <v>8</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="710" spans="2:4">
@@ -9296,10 +9592,10 @@
         <v>9</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="711" spans="2:4">
@@ -9307,10 +9603,10 @@
         <v>10</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="712" spans="2:4">
@@ -9318,10 +9614,10 @@
         <v>11</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="713" spans="2:4">
@@ -9329,10 +9625,10 @@
         <v>12</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="714" spans="2:4">
@@ -9340,10 +9636,10 @@
         <v>13</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="715" spans="2:4">
@@ -9351,10 +9647,10 @@
         <v>14</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="716" spans="2:4">
@@ -9362,10 +9658,10 @@
         <v>15</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="717" spans="2:4">
@@ -9373,10 +9669,10 @@
         <v>16</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="718" spans="2:4">
@@ -9384,7 +9680,7 @@
         <v>17</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="719" spans="2:4">
@@ -9392,10 +9688,10 @@
         <v>18</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="720" spans="2:4">
@@ -9403,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="721" spans="2:4">
@@ -9411,193 +9707,277 @@
         <v>20</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="722" spans="2:4">
       <c r="C722" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="723" spans="2:4">
       <c r="B723" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="724" spans="2:4">
       <c r="C724" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="725" spans="2:4">
       <c r="C725" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="726" spans="2:4">
       <c r="B726" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C726" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D726" s="3" t="s">
         <v>887</v>
-      </c>
-      <c r="D726" s="3" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="727" spans="2:4">
       <c r="B727" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="728" spans="2:4">
       <c r="B728" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="729" spans="2:4">
       <c r="B729" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="730" spans="2:4">
       <c r="B730" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C730" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D730" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="D730" s="3" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="731" spans="2:4">
       <c r="B731" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="732" spans="2:4">
       <c r="B732" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="733" spans="2:4">
       <c r="B733" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="734" spans="2:4">
       <c r="B734" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="735" spans="2:4">
       <c r="B735" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="736" spans="2:4">
       <c r="B736" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C736" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D736" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="D736" s="3" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="737" spans="2:4">
       <c r="C737" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D737" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="D737" s="3" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="738" spans="2:4">
       <c r="B738" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="739" spans="2:4">
       <c r="B739" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D739" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C739" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="D739" s="3" t="s">
+    </row>
+    <row r="740" spans="2:4">
+      <c r="B740" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C740" s="3" t="s">
         <v>924</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4">
+      <c r="C741" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4">
+      <c r="B742" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4">
+      <c r="B743" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4">
+      <c r="B744" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="745" spans="2:4">
+      <c r="B745" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="746" spans="2:4">
+      <c r="B746" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="747" spans="2:4">
+      <c r="B747" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="748" spans="2:4">
+      <c r="C748" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -9609,18 +9989,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA89DD5-CD61-8B46-9219-77CA9EA380CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{401A47EC-F84F-604F-B2E7-C0DA5FE7EDAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>